--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -4723,7 +4723,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -5,12 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sayfa2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
   <si>
     <t xml:space="preserve">Ülke (İngilizce)</t>
   </si>
@@ -2020,8 +2019,8 @@
   </sheetPr>
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4716,121 +4715,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
